--- a/biology/Botanique/Pennantiaceae/Pennantiaceae.xlsx
+++ b/biology/Botanique/Pennantiaceae/Pennantiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Pennantiacées est une famille de plantes dicotylédones.
 </t>
@@ -511,12 +523,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Pennantia, qui honore le naturaliste gallois Thomas Pennant (1726–1798)[1].
-Le nom générique fut créé en 1775 par Johann Reinhold Forster et Georg Forster dans Characteres Generum Plantarum[2],[3].
-L'espèce type est Pennantia corymbosa (en) J.R. Forst. &amp; G.Forst[3].
-La famille des Pennantiaceae a été créée en 1858 par Jakob Georg Agardh dans Theoria Systematis Plantarum[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Pennantia, qui honore le naturaliste gallois Thomas Pennant (1726–1798).
+Le nom générique fut créé en 1775 par Johann Reinhold Forster et Georg Forster dans Characteres Generum Plantarum,.
+L'espèce type est Pennantia corymbosa (en) J.R. Forst. &amp; G.Forst.
+La famille des Pennantiaceae a été créée en 1858 par Jakob Georg Agardh dans Theoria Systematis Plantarum.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[5] cette famille n'existe pas. Dans cette classification le genre Pennantia est assigné à la famille des Icacinacées.
-En classification phylogénétique APG II (2003)[6] elle ne comprend que quatre espèces du genre Pennantia (Kaikomako dans la langue māori), ce sont de petits arbres d'environ 5-10 m de hauteur, originaires de Nouvelle-Zélande et Australie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas. Dans cette classification le genre Pennantia est assigné à la famille des Icacinacées.
+En classification phylogénétique APG II (2003) elle ne comprend que quatre espèces du genre Pennantia (Kaikomako dans la langue māori), ce sont de petits arbres d'environ 5-10 m de hauteur, originaires de Nouvelle-Zélande et Australie.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010)[7], NCBI  (12 Jul 2010)[8] et DELTA Angio           (12 Jul 2010)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010), NCBI  (12 Jul 2010) et DELTA Angio           (12 Jul 2010) :
 Pennantia (en) J. R. Forster &amp; G. Forster</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Pennantia
 Pennantia baylisiana
 Pennantia corymbosa
